--- a/biology/Botanique/Phleum/Phleum.xlsx
+++ b/biology/Botanique/Phleum/Phleum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Phleum rassemble des plantes herbacées appelées fléoles, de la famille des Poaceae (graminées).
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces et sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon The plant list[1] et Tela botanica[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon The plant list et Tela botanica
 Phleum alpinum - fléole des Alpes
 Phleum arenarium - fléole des sables
 Phleum arenarium f. caesium (H.Scholz) B.Bock -  fléole bleue
@@ -528,7 +542,7 @@
 Phleum hirsutum - fléole hirsute
 Phleum iranicum Bornm. &amp; Gauba
 Phleum montanum
-Phleum nodosum L. [1759] Synonyme de Phleum pratense var. nodosum  - fléole bulbeuse, fléole noueuse, fléole tardive
+Phleum nodosum L.  Synonyme de Phleum pratense var. nodosum  - fléole bulbeuse, fléole noueuse, fléole tardive
 Phleum paniculatum - fléole en panicules, fléole paniculée, fléole rude, phléole rude
 Phleum phleoides - fléole de Boehmer, fléole fausse fléole, phléole de Boehmer
 Phleum pratense - fléole des prés, phléole des prés, queue-de-rat, timothée
@@ -536,7 +550,7 @@
 Phleum rhaeticum - fléole des Alpes rhétiques, fléole rhétique, phléole des Alpes rhétiques, phléole rhétique
 Phleum subulatum (Savi) Asch. &amp; Graebn - phléole subulée
 Phleum × viniklarii Röhl.
-Selon ITIS      (30 janv. 2017)[3] :
+Selon ITIS      (30 janv. 2017) :
 Phleum alpinum L.
 Phleum arenarium L.
 Phleum exaratum Hochst. ex Griseb.
